--- a/14. Matriz de Rastreabilidade (Necessidades x Características).xlsx
+++ b/14. Matriz de Rastreabilidade (Necessidades x Características).xlsx
@@ -79,7 +79,15 @@
     <t>Automatização de processos</t>
   </si>
   <si>
-    <t>Aviso via E-mail</t>
+    <r>
+      <t xml:space="preserve">Alerta via </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>E-mail</t>
+    </r>
   </si>
   <si>
     <t>Suporte ao cliente</t>
@@ -91,7 +99,7 @@
     <t>Redefinição de login e senha</t>
   </si>
   <si>
-    <t>Implantação</t>
+    <t>Implantação (ERP)</t>
   </si>
   <si>
     <t>Consultor virtual</t>
@@ -199,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -245,11 +253,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF434343"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -286,8 +302,8 @@
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -303,6 +319,15 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,6 +547,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.0"/>
     <col customWidth="1" min="2" max="2" width="32.43"/>
+    <col customWidth="1" min="9" max="9" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -653,7 +679,7 @@
     </row>
     <row r="12">
       <c r="A12" s="12">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>16</v>
@@ -669,7 +695,7 @@
     </row>
     <row r="13">
       <c r="A13" s="12">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>18</v>
@@ -685,7 +711,7 @@
     </row>
     <row r="14">
       <c r="A14" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>19</v>
@@ -703,7 +729,7 @@
     </row>
     <row r="15">
       <c r="A15" s="12">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>20</v>
@@ -721,7 +747,7 @@
     </row>
     <row r="16">
       <c r="A16" s="12">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>21</v>
@@ -743,9 +769,9 @@
     </row>
     <row r="17">
       <c r="A17" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="14"/>
@@ -759,7 +785,7 @@
     </row>
     <row r="18">
       <c r="A18" s="12">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>23</v>
@@ -775,7 +801,7 @@
     </row>
     <row r="19">
       <c r="A19" s="12">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>24</v>
@@ -795,7 +821,7 @@
     </row>
     <row r="20">
       <c r="A20" s="12">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>25</v>
@@ -813,9 +839,9 @@
     </row>
     <row r="21">
       <c r="A21" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
+        <v>16.0</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="14"/>
@@ -829,7 +855,7 @@
     </row>
     <row r="22">
       <c r="A22" s="12">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>27</v>
@@ -845,7 +871,7 @@
     </row>
     <row r="23">
       <c r="A23" s="12">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>28</v>
@@ -871,7 +897,7 @@
     </row>
     <row r="24">
       <c r="A24" s="12">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>29</v>
@@ -887,7 +913,7 @@
     </row>
     <row r="25">
       <c r="A25" s="12">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>30</v>
@@ -905,7 +931,7 @@
     </row>
     <row r="26">
       <c r="A26" s="12">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>31</v>
@@ -927,7 +953,7 @@
     </row>
     <row r="27">
       <c r="A27" s="12">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>32</v>
@@ -943,7 +969,7 @@
     </row>
     <row r="28">
       <c r="A28" s="12">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>33</v>
@@ -958,7 +984,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="20">
         <v>18.0</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -975,7 +1001,7 @@
     </row>
     <row r="30">
       <c r="A30" s="12">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>35</v>
@@ -993,7 +1019,7 @@
     </row>
     <row r="31">
       <c r="A31" s="12">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>36</v>
@@ -1011,7 +1037,7 @@
     </row>
     <row r="32">
       <c r="A32" s="12">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>37</v>
@@ -1027,7 +1053,7 @@
     </row>
     <row r="33">
       <c r="A33" s="12">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>38</v>
@@ -1049,7 +1075,7 @@
     </row>
     <row r="34">
       <c r="A34" s="12">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>39</v>
@@ -1065,7 +1091,7 @@
     </row>
     <row r="35">
       <c r="A35" s="12">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>40</v>
@@ -1081,7 +1107,7 @@
     </row>
     <row r="36">
       <c r="A36" s="12">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>41</v>
@@ -1103,7 +1129,7 @@
     </row>
     <row r="37">
       <c r="A37" s="12">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>42</v>
@@ -1119,7 +1145,7 @@
     </row>
     <row r="38">
       <c r="A38" s="12">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>43</v>
@@ -1145,7 +1171,7 @@
     </row>
     <row r="39">
       <c r="A39" s="12">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>44</v>
@@ -1161,7 +1187,7 @@
     </row>
     <row r="40">
       <c r="A40" s="12">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>45</v>
@@ -8919,6 +8945,14 @@
       <c r="G1008" s="4"/>
       <c r="H1008" s="3"/>
     </row>
+    <row r="1009">
+      <c r="C1009" s="3"/>
+      <c r="D1009" s="3"/>
+      <c r="E1009" s="3"/>
+      <c r="F1009" s="3"/>
+      <c r="G1009" s="3"/>
+      <c r="H1009" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
